--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rb09a107372bb41df"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R310ed07debab4d1d"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rba5fa22132374149"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="Re3afe2f0620e409d"/>
   </sheets>
 </workbook>
 </file>
@@ -24,7 +24,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -35,7 +35,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,11 +57,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="ND6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="ND6" authorId="0">
+    <comment ref="NE6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -82,7 +93,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a marzo de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a abril de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -185,7 +196,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -205,7 +216,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -267,7 +278,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -287,6 +298,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Marzo</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -297,7 +328,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Marzo</d:t>
+      <d:t> Abril</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -348,25 +379,6 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t>P</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -379,7 +391,23 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, al disponer de un dato más reciente de las Cuentas de Bienes y Servicios 2019, versión revisada, y en esta ocasión se incorpora la construcción del Aeropuerto Internacional Felipe Ángeles a la Encuesta Nacional de Empresas Constructoras (ENEC) desde octubre 2019, así como la inclusión de la última información estadística disponible de la encuesta Mensual de la Industria Manufacturera y de los registros administrativos, se debe realizar la actualización de este indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicados.</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t>R</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="10"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Cifras revisadas</d:t>
+    </d:r>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
@@ -448,19 +476,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-03</t>
+    <t>1993-01-2021-04</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a marzo de 2021</t>
+    <t>Serie de enero de 1993 a abril de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-06-07</t>
+    <t>2021-07-06</t>
   </si>
 </sst>
 </file>
@@ -601,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN25"/>
+  <dimension ref="A1:NN24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2546,7 +2574,7 @@
         <v>48</v>
       </c>
       <c r="NE6" s="10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="NF6" s="10" t="s">
         <v>37</v>
@@ -2578,7 +2606,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3679,42 +3707,42 @@
         <v>90.8671099284913</v>
       </c>
       <c r="ND7" s="11">
-        <v>93.6430428281982</v>
-      </c>
-      <c r="NE7" s="14" t="s">
-        <v>50</v>
+        <v>93.5876409097754</v>
+      </c>
+      <c r="NE7" s="11">
+        <v>87.78453628311</v>
       </c>
       <c r="NF7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4815,42 +4843,42 @@
         <v>89.9727955149623</v>
       </c>
       <c r="ND8" s="12">
-        <v>82.0077524482091</v>
-      </c>
-      <c r="NE8" s="15" t="s">
-        <v>50</v>
+        <v>81.9286698872556</v>
+      </c>
+      <c r="NE8" s="12">
+        <v>80.5634624000924</v>
       </c>
       <c r="NF8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -5951,42 +5979,42 @@
         <v>113.849513625423</v>
       </c>
       <c r="ND9" s="11">
-        <v>100.337912253378</v>
-      </c>
-      <c r="NE9" s="14" t="s">
-        <v>50</v>
+        <v>100.069608757917</v>
+      </c>
+      <c r="NE9" s="11">
+        <v>100.797108320725</v>
       </c>
       <c r="NF9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7087,42 +7115,42 @@
         <v>72.4654302901096</v>
       </c>
       <c r="ND10" s="12">
-        <v>68.5673457367687</v>
-      </c>
-      <c r="NE10" s="15" t="s">
-        <v>50</v>
+        <v>68.6270075373013</v>
+      </c>
+      <c r="NE10" s="12">
+        <v>65.7273434944687</v>
       </c>
       <c r="NF10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8223,42 +8251,42 @@
         <v>92.2917733335449</v>
       </c>
       <c r="ND11" s="11">
-        <v>112.178327690857</v>
-      </c>
-      <c r="NE11" s="14" t="s">
-        <v>50</v>
+        <v>112.160649579981</v>
+      </c>
+      <c r="NE11" s="11">
+        <v>99.2878728621638</v>
       </c>
       <c r="NF11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9359,42 +9387,42 @@
         <v>86.9043250475098</v>
       </c>
       <c r="ND12" s="12">
-        <v>105.52860099452</v>
-      </c>
-      <c r="NE12" s="15" t="s">
-        <v>50</v>
+        <v>105.423543841938</v>
+      </c>
+      <c r="NE12" s="12">
+        <v>92.3261004682153</v>
       </c>
       <c r="NF12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10497,40 +10525,40 @@
       <c r="ND13" s="11">
         <v>107.523562327978</v>
       </c>
-      <c r="NE13" s="14" t="s">
-        <v>50</v>
+      <c r="NE13" s="11">
+        <v>84.5006951969904</v>
       </c>
       <c r="NF13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11631,42 +11659,42 @@
         <v>86.4525350727571</v>
       </c>
       <c r="ND14" s="12">
-        <v>102.997289518781</v>
-      </c>
-      <c r="NE14" s="15" t="s">
-        <v>50</v>
+        <v>102.758930346015</v>
+      </c>
+      <c r="NE14" s="12">
+        <v>102.255384727084</v>
       </c>
       <c r="NF14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -12767,42 +12795,42 @@
         <v>95.8550367584891</v>
       </c>
       <c r="ND15" s="11">
-        <v>116.576463257997</v>
-      </c>
-      <c r="NE15" s="14" t="s">
-        <v>50</v>
+        <v>116.616577728484</v>
+      </c>
+      <c r="NE15" s="11">
+        <v>103.892395750754</v>
       </c>
       <c r="NF15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -13903,42 +13931,42 @@
         <v>80.4591395492503</v>
       </c>
       <c r="ND16" s="12">
-        <v>104.730590556591</v>
-      </c>
-      <c r="NE16" s="15" t="s">
-        <v>50</v>
+        <v>104.763536453185</v>
+      </c>
+      <c r="NE16" s="12">
+        <v>76.6043665541108</v>
       </c>
       <c r="NF16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15039,61 +15067,56 @@
         <v>98.4027309767661</v>
       </c>
       <c r="ND17" s="11">
-        <v>118.536703767638</v>
-      </c>
-      <c r="NE17" s="14" t="s">
-        <v>50</v>
+        <v>118.578004484955</v>
+      </c>
+      <c r="NE17" s="11">
+        <v>108.407985408675</v>
       </c>
       <c r="NF17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NG17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NH17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15129,7 +15152,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R3f1d5b8c391c4a2b"/>
+  <legacyDrawing r:id="Ra209e68ab62a4c96"/>
 </worksheet>
 </file>
 

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rba5fa22132374149"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="Re3afe2f0620e409d"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rbdcd46d054064bc9"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R0f98e5cac92d42dc"/>
   </sheets>
 </workbook>
 </file>
@@ -68,11 +68,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NE6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NE6" authorId="0">
+    <comment ref="NF6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -88,12 +99,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a abril de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a mayo de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -318,6 +329,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Abril</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -328,7 +359,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Abril</d:t>
+      <d:t> Mayo</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -476,19 +507,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-04</t>
+    <t>1993-01-2021-05</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a abril de 2021</t>
+    <t>Serie de enero de 1993 a mayo de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-07-06</t>
+    <t>2021-08-06</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2608,7 @@
         <v>49</v>
       </c>
       <c r="NF6" s="10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="NG6" s="10" t="s">
         <v>38</v>
@@ -2606,7 +2637,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3710,39 +3741,39 @@
         <v>93.5876409097754</v>
       </c>
       <c r="NE7" s="11">
-        <v>87.78453628311</v>
-      </c>
-      <c r="NF7" s="14" t="s">
-        <v>51</v>
+        <v>87.7112332784495</v>
+      </c>
+      <c r="NF7" s="11">
+        <v>92.5730053216484</v>
       </c>
       <c r="NG7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4846,39 +4877,39 @@
         <v>81.9286698872556</v>
       </c>
       <c r="NE8" s="12">
-        <v>80.5634624000924</v>
-      </c>
-      <c r="NF8" s="15" t="s">
-        <v>51</v>
+        <v>80.4785080944347</v>
+      </c>
+      <c r="NF8" s="12">
+        <v>84.588556528313</v>
       </c>
       <c r="NG8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -5982,39 +6013,39 @@
         <v>100.069608757917</v>
       </c>
       <c r="NE9" s="11">
-        <v>100.797108320725</v>
-      </c>
-      <c r="NF9" s="14" t="s">
-        <v>51</v>
+        <v>100.550823688011</v>
+      </c>
+      <c r="NF9" s="11">
+        <v>109.814287751774</v>
       </c>
       <c r="NG9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7118,39 +7149,39 @@
         <v>68.6270075373013</v>
       </c>
       <c r="NE10" s="12">
-        <v>65.7273434944687</v>
-      </c>
-      <c r="NF10" s="15" t="s">
-        <v>51</v>
+        <v>65.7606830407782</v>
+      </c>
+      <c r="NF10" s="12">
+        <v>66.0920409037639</v>
       </c>
       <c r="NG10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8254,39 +8285,39 @@
         <v>112.160649579981</v>
       </c>
       <c r="NE11" s="11">
-        <v>99.2878728621638</v>
-      </c>
-      <c r="NF11" s="14" t="s">
-        <v>51</v>
+        <v>99.2331306476468</v>
+      </c>
+      <c r="NF11" s="11">
+        <v>105.292415669182</v>
       </c>
       <c r="NG11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9390,39 +9421,39 @@
         <v>105.423543841938</v>
       </c>
       <c r="NE12" s="12">
-        <v>92.3261004682153</v>
-      </c>
-      <c r="NF12" s="15" t="s">
-        <v>51</v>
+        <v>92.1870162761075</v>
+      </c>
+      <c r="NF12" s="12">
+        <v>107.889960153888</v>
       </c>
       <c r="NG12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10528,37 +10559,37 @@
       <c r="NE13" s="11">
         <v>84.5006951969904</v>
       </c>
-      <c r="NF13" s="14" t="s">
-        <v>51</v>
+      <c r="NF13" s="11">
+        <v>118.949756011039</v>
       </c>
       <c r="NG13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11662,39 +11693,39 @@
         <v>102.758930346015</v>
       </c>
       <c r="NE14" s="12">
-        <v>102.255384727084</v>
-      </c>
-      <c r="NF14" s="15" t="s">
-        <v>51</v>
+        <v>101.939823224027</v>
+      </c>
+      <c r="NF14" s="12">
+        <v>93.8567116377349</v>
       </c>
       <c r="NG14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -12798,39 +12829,39 @@
         <v>116.616577728484</v>
       </c>
       <c r="NE15" s="11">
-        <v>103.892395750754</v>
-      </c>
-      <c r="NF15" s="14" t="s">
-        <v>51</v>
+        <v>103.893437400504</v>
+      </c>
+      <c r="NF15" s="11">
+        <v>103.574397274274</v>
       </c>
       <c r="NG15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -13934,39 +13965,39 @@
         <v>104.763536453185</v>
       </c>
       <c r="NE16" s="12">
-        <v>76.6043665541108</v>
-      </c>
-      <c r="NF16" s="15" t="s">
-        <v>51</v>
+        <v>76.619351906434</v>
+      </c>
+      <c r="NF16" s="12">
+        <v>92.977201672144</v>
       </c>
       <c r="NG16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15070,49 +15101,49 @@
         <v>118.578004484955</v>
       </c>
       <c r="NE17" s="11">
-        <v>108.407985408675</v>
-      </c>
-      <c r="NF17" s="14" t="s">
-        <v>51</v>
+        <v>108.406719671598</v>
+      </c>
+      <c r="NF17" s="11">
+        <v>105.328008226502</v>
       </c>
       <c r="NG17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NH17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -15152,7 +15183,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Ra209e68ab62a4c96"/>
+  <legacyDrawing r:id="Rd3ef6d4847204a72"/>
 </worksheet>
 </file>
 
@@ -15169,106 +15200,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rbdcd46d054064bc9"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R0f98e5cac92d42dc"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rca00adb77cc449de"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="Rdb59972713c24dfc"/>
   </sheets>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -90,6 +90,17 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">R. Cifras revisadas</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NG6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
@@ -99,12 +110,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a mayo de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a junio de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -289,7 +300,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -309,7 +320,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -329,7 +340,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -360,6 +371,26 @@
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t> Mayo</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">R</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Junio</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -441,6 +472,9 @@
     </d:r>
   </si>
   <si>
+    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que complementan las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, los resultados del Indicador Mensual de la Formación Bruta de Capital Fijo incorporan la última información estadística disponible de la Encuesta Nacional de Empresas Constructoras, la Encuesta Mensual de la Industria Manufacturera, los registros administrativos y los datos primarios del año 2021, por lo que se debe actualizar el indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
+  </si>
+  <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
   </si>
   <si>
@@ -507,19 +541,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-05</t>
+    <t>1993-01-2021-06</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a mayo de 2021</t>
+    <t>Serie de enero de 1993 a junio de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-08-06</t>
+    <t>2021-09-06</t>
   </si>
 </sst>
 </file>
@@ -660,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN24"/>
+  <dimension ref="A1:NN25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2611,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="NG6" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="NH6" s="10" t="s">
         <v>39</v>
@@ -2637,7 +2671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3732,48 +3766,48 @@
         <v>84.3780954966916</v>
       </c>
       <c r="NB7" s="11">
-        <v>91.1308579866324</v>
+        <v>91.0709489270992</v>
       </c>
       <c r="NC7" s="11">
-        <v>90.8671099284913</v>
+        <v>90.8450924797095</v>
       </c>
       <c r="ND7" s="11">
-        <v>93.5876409097754</v>
+        <v>93.5269568105238</v>
       </c>
       <c r="NE7" s="11">
-        <v>87.7112332784495</v>
+        <v>87.6913417257206</v>
       </c>
       <c r="NF7" s="11">
-        <v>92.5730053216484</v>
-      </c>
-      <c r="NG7" s="14" t="s">
-        <v>52</v>
+        <v>92.5575040324675</v>
+      </c>
+      <c r="NG7" s="11">
+        <v>90.795326010126</v>
       </c>
       <c r="NH7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4868,48 +4902,48 @@
         <v>79.222460377913</v>
       </c>
       <c r="NB8" s="12">
-        <v>89.3092989441264</v>
+        <v>89.3069456036448</v>
       </c>
       <c r="NC8" s="12">
-        <v>89.9727955149623</v>
+        <v>89.9708341636664</v>
       </c>
       <c r="ND8" s="12">
-        <v>81.9286698872556</v>
+        <v>81.9257191688947</v>
       </c>
       <c r="NE8" s="12">
-        <v>80.4785080944347</v>
+        <v>80.4784878179097</v>
       </c>
       <c r="NF8" s="12">
-        <v>84.588556528313</v>
-      </c>
-      <c r="NG8" s="15" t="s">
-        <v>52</v>
+        <v>84.5621647495203</v>
+      </c>
+      <c r="NG8" s="12">
+        <v>80.282095680011</v>
       </c>
       <c r="NH8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6016,36 +6050,36 @@
         <v>100.550823688011</v>
       </c>
       <c r="NF9" s="11">
-        <v>109.814287751774</v>
-      </c>
-      <c r="NG9" s="14" t="s">
-        <v>52</v>
+        <v>109.810256490589</v>
+      </c>
+      <c r="NG9" s="11">
+        <v>96.6171108067772</v>
       </c>
       <c r="NH9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7140,48 +7174,48 @@
         <v>67.5250181894565</v>
       </c>
       <c r="NB10" s="12">
-        <v>78.2327855655735</v>
+        <v>78.2287066616741</v>
       </c>
       <c r="NC10" s="12">
-        <v>72.4654302901096</v>
+        <v>72.4620307975536</v>
       </c>
       <c r="ND10" s="12">
-        <v>68.6270075373013</v>
+        <v>68.6218932341554</v>
       </c>
       <c r="NE10" s="12">
-        <v>65.7606830407782</v>
+        <v>65.7606478966936</v>
       </c>
       <c r="NF10" s="12">
-        <v>66.0920409037639</v>
-      </c>
-      <c r="NG10" s="15" t="s">
-        <v>52</v>
+        <v>66.0492534986306</v>
+      </c>
+      <c r="NG10" s="12">
+        <v>68.3046088891237</v>
       </c>
       <c r="NH10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8276,48 +8310,48 @@
         <v>92.5911406767967</v>
       </c>
       <c r="NB11" s="11">
-        <v>94.0326433864252</v>
+        <v>93.8810467442657</v>
       </c>
       <c r="NC11" s="11">
-        <v>92.2917733335449</v>
+        <v>92.2378060607368</v>
       </c>
       <c r="ND11" s="11">
-        <v>112.160649579981</v>
+        <v>112.007994878712</v>
       </c>
       <c r="NE11" s="11">
-        <v>99.2331306476468</v>
+        <v>99.1815836954397</v>
       </c>
       <c r="NF11" s="11">
-        <v>105.292415669182</v>
-      </c>
-      <c r="NG11" s="14" t="s">
-        <v>52</v>
+        <v>105.29426318013</v>
+      </c>
+      <c r="NG11" s="11">
+        <v>107.543143437233</v>
       </c>
       <c r="NH11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9412,48 +9446,48 @@
         <v>88.5933845238671</v>
       </c>
       <c r="NB12" s="12">
-        <v>84.7551370450529</v>
+        <v>84.4538847084409</v>
       </c>
       <c r="NC12" s="12">
-        <v>86.9043250475098</v>
+        <v>86.9090113811787</v>
       </c>
       <c r="ND12" s="12">
-        <v>105.423543841938</v>
+        <v>105.156146759006</v>
       </c>
       <c r="NE12" s="12">
-        <v>92.1870162761075</v>
+        <v>91.9493836182886</v>
       </c>
       <c r="NF12" s="12">
-        <v>107.889960153888</v>
-      </c>
-      <c r="NG12" s="15" t="s">
-        <v>52</v>
+        <v>107.918389074156</v>
+      </c>
+      <c r="NG12" s="12">
+        <v>108.016516845907</v>
       </c>
       <c r="NH12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10557,39 +10591,39 @@
         <v>107.523562327978</v>
       </c>
       <c r="NE13" s="11">
-        <v>84.5006951969904</v>
+        <v>84.3378398562791</v>
       </c>
       <c r="NF13" s="11">
-        <v>118.949756011039</v>
-      </c>
-      <c r="NG13" s="14" t="s">
-        <v>52</v>
+        <v>118.754889887366</v>
+      </c>
+      <c r="NG13" s="11">
+        <v>115.288760671354</v>
       </c>
       <c r="NH13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11684,48 +11718,48 @@
         <v>88.403320836216</v>
       </c>
       <c r="NB14" s="12">
-        <v>87.9950209292634</v>
+        <v>87.3115238423548</v>
       </c>
       <c r="NC14" s="12">
-        <v>86.4525350727571</v>
+        <v>86.4631676721486</v>
       </c>
       <c r="ND14" s="12">
-        <v>102.758930346015</v>
+        <v>102.15224583267</v>
       </c>
       <c r="NE14" s="12">
-        <v>101.939823224027</v>
+        <v>101.607309187935</v>
       </c>
       <c r="NF14" s="12">
-        <v>93.8567116377349</v>
-      </c>
-      <c r="NG14" s="15" t="s">
-        <v>52</v>
+        <v>94.1684690104008</v>
+      </c>
+      <c r="NG14" s="12">
+        <v>98.7891128150653</v>
       </c>
       <c r="NH14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -12820,48 +12854,48 @@
         <v>95.2352604019928</v>
       </c>
       <c r="NB15" s="11">
-        <v>100.168794912295</v>
+        <v>100.116180688911</v>
       </c>
       <c r="NC15" s="11">
-        <v>95.8550367584891</v>
+        <v>95.762275934522</v>
       </c>
       <c r="ND15" s="11">
-        <v>116.616577728484</v>
+        <v>116.539813747675</v>
       </c>
       <c r="NE15" s="11">
-        <v>103.893437400504</v>
+        <v>103.964967711132</v>
       </c>
       <c r="NF15" s="11">
-        <v>103.574397274274</v>
-      </c>
-      <c r="NG15" s="14" t="s">
-        <v>52</v>
+        <v>103.558663815795</v>
+      </c>
+      <c r="NG15" s="11">
+        <v>107.23005381411</v>
       </c>
       <c r="NH15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -13959,45 +13993,45 @@
         <v>71.2080005299601</v>
       </c>
       <c r="NC16" s="12">
-        <v>80.4591395492503</v>
+        <v>80.4547935570693</v>
       </c>
       <c r="ND16" s="12">
-        <v>104.763536453185</v>
+        <v>104.75632076531</v>
       </c>
       <c r="NE16" s="12">
-        <v>76.619351906434</v>
+        <v>76.598906004139</v>
       </c>
       <c r="NF16" s="12">
-        <v>92.977201672144</v>
-      </c>
-      <c r="NG16" s="15" t="s">
-        <v>52</v>
+        <v>92.8893117981847</v>
+      </c>
+      <c r="NG16" s="12">
+        <v>90.7189674350684</v>
       </c>
       <c r="NH16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15092,62 +15126,67 @@
         <v>98.1747647031184</v>
       </c>
       <c r="NB17" s="11">
-        <v>104.961191704884</v>
+        <v>104.899870944239</v>
       </c>
       <c r="NC17" s="11">
-        <v>98.4027309767661</v>
+        <v>98.2953393746969</v>
       </c>
       <c r="ND17" s="11">
-        <v>118.578004484955</v>
+        <v>118.489731737791</v>
       </c>
       <c r="NE17" s="11">
-        <v>108.406719671598</v>
+        <v>108.493470093318</v>
       </c>
       <c r="NF17" s="11">
-        <v>105.328008226502</v>
-      </c>
-      <c r="NG17" s="14" t="s">
-        <v>52</v>
+        <v>105.324215123303</v>
+      </c>
+      <c r="NG17" s="11">
+        <v>109.962288170684</v>
       </c>
       <c r="NH17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15183,7 +15222,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Rd3ef6d4847204a72"/>
+  <legacyDrawing r:id="R6dda2e4f27e34292"/>
 </worksheet>
 </file>
 
@@ -15200,106 +15239,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rca00adb77cc449de"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="Rdb59972713c24dfc"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R4ec5570e94ec4383"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="Rd5a7bca9f70b4285"/>
   </sheets>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -79,7 +79,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -90,11 +90,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NG6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NG6" authorId="0">
+    <comment ref="NH6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -115,7 +126,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a junio de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a julio de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -300,7 +311,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -320,7 +331,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -340,7 +351,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -360,7 +371,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -380,6 +391,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Junio</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -390,7 +421,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Junio</d:t>
+      <d:t> Julio</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -472,9 +503,6 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: Con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ y que complementan las ´´Normas Especiales para la Divulgación de Datos´´ del FMI, los resultados del Indicador Mensual de la Formación Bruta de Capital Fijo incorporan la última información estadística disponible de la Encuesta Nacional de Empresas Constructoras, la Encuesta Mensual de la Industria Manufacturera, los registros administrativos y los datos primarios del año 2021, por lo que se debe actualizar el indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
-  </si>
-  <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
   </si>
   <si>
@@ -541,19 +569,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-06</t>
+    <t>1993-01-2021-07</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a junio de 2021</t>
+    <t>Serie de enero de 1993 a julio de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-09-06</t>
+    <t>2021-10-06</t>
   </si>
 </sst>
 </file>
@@ -694,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN25"/>
+  <dimension ref="A1:NN24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2648,7 +2676,7 @@
         <v>51</v>
       </c>
       <c r="NH6" s="10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="NI6" s="10" t="s">
         <v>40</v>
@@ -2671,7 +2699,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3781,33 +3809,33 @@
         <v>92.5575040324675</v>
       </c>
       <c r="NG7" s="11">
-        <v>90.795326010126</v>
-      </c>
-      <c r="NH7" s="14" t="s">
-        <v>53</v>
+        <v>90.6581816165899</v>
+      </c>
+      <c r="NH7" s="11">
+        <v>92.73478547381</v>
       </c>
       <c r="NI7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4917,33 +4945,33 @@
         <v>84.5621647495203</v>
       </c>
       <c r="NG8" s="12">
-        <v>80.282095680011</v>
-      </c>
-      <c r="NH8" s="15" t="s">
-        <v>53</v>
+        <v>80.134133666811</v>
+      </c>
+      <c r="NH8" s="12">
+        <v>81.068255608555</v>
       </c>
       <c r="NI8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6053,33 +6081,33 @@
         <v>109.810256490589</v>
       </c>
       <c r="NG9" s="11">
-        <v>96.6171108067772</v>
-      </c>
-      <c r="NH9" s="14" t="s">
-        <v>53</v>
+        <v>96.4890437194402</v>
+      </c>
+      <c r="NH9" s="11">
+        <v>100.987283251232</v>
       </c>
       <c r="NI9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7189,33 +7217,33 @@
         <v>66.0492534986306</v>
       </c>
       <c r="NG10" s="12">
-        <v>68.3046088891237</v>
-      </c>
-      <c r="NH10" s="15" t="s">
-        <v>53</v>
+        <v>68.1420591201193</v>
+      </c>
+      <c r="NH10" s="12">
+        <v>66.4628274148246</v>
       </c>
       <c r="NI10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8325,33 +8353,33 @@
         <v>105.29426318013</v>
       </c>
       <c r="NG11" s="11">
-        <v>107.543143437233</v>
-      </c>
-      <c r="NH11" s="14" t="s">
-        <v>53</v>
+        <v>107.423231760325</v>
+      </c>
+      <c r="NH11" s="11">
+        <v>111.319835554135</v>
       </c>
       <c r="NI11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9461,33 +9489,33 @@
         <v>107.918389074156</v>
       </c>
       <c r="NG12" s="12">
-        <v>108.016516845907</v>
-      </c>
-      <c r="NH12" s="15" t="s">
-        <v>53</v>
+        <v>107.798492757926</v>
+      </c>
+      <c r="NH12" s="12">
+        <v>100.121768283551</v>
       </c>
       <c r="NI12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10597,33 +10625,33 @@
         <v>118.754889887366</v>
       </c>
       <c r="NG13" s="11">
-        <v>115.288760671354</v>
-      </c>
-      <c r="NH13" s="14" t="s">
-        <v>53</v>
+        <v>115.288761170126</v>
+      </c>
+      <c r="NH13" s="11">
+        <v>97.4081336111827</v>
       </c>
       <c r="NI13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11733,33 +11761,33 @@
         <v>94.1684690104008</v>
       </c>
       <c r="NG14" s="12">
-        <v>98.7891128150653</v>
-      </c>
-      <c r="NH14" s="15" t="s">
-        <v>53</v>
+        <v>98.2944477069376</v>
+      </c>
+      <c r="NH14" s="12">
+        <v>103.564970150135</v>
       </c>
       <c r="NI14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -12869,33 +12897,33 @@
         <v>103.558663815795</v>
       </c>
       <c r="NG15" s="11">
-        <v>107.23005381411</v>
-      </c>
-      <c r="NH15" s="14" t="s">
-        <v>53</v>
+        <v>107.175033779283</v>
+      </c>
+      <c r="NH15" s="11">
+        <v>118.726247906857</v>
       </c>
       <c r="NI15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14005,33 +14033,33 @@
         <v>92.8893117981847</v>
       </c>
       <c r="NG16" s="12">
-        <v>90.7189674350684</v>
-      </c>
-      <c r="NH16" s="15" t="s">
-        <v>53</v>
+        <v>90.7134494820465</v>
+      </c>
+      <c r="NH16" s="12">
+        <v>87.0206905030198</v>
       </c>
       <c r="NI16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15141,52 +15169,47 @@
         <v>105.324215123303</v>
       </c>
       <c r="NG17" s="11">
-        <v>109.962288170684</v>
-      </c>
-      <c r="NH17" s="14" t="s">
-        <v>53</v>
+        <v>109.899076591974</v>
+      </c>
+      <c r="NH17" s="11">
+        <v>123.972844723347</v>
       </c>
       <c r="NI17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NJ17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NK17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15222,7 +15245,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R6dda2e4f27e34292"/>
+  <legacyDrawing r:id="R80d130d027f447ef"/>
 </worksheet>
 </file>
 

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rf51f3bc8b58e4011"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R5b25255cfafb487e"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Ra8b0229d607e43a7"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R5121b91a43ed4e72"/>
   </sheets>
 </workbook>
 </file>
@@ -24,7 +24,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -35,7 +35,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -79,7 +79,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -90,7 +90,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -123,11 +123,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NJ6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NJ6" authorId="0">
+    <comment ref="NK6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -148,7 +159,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a septiembre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a octubre de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -251,7 +262,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -271,7 +282,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -333,7 +344,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -353,7 +364,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -373,7 +384,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -393,7 +404,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -413,7 +424,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -433,7 +444,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -453,7 +464,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -473,6 +484,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Septiembre</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -483,7 +514,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Septiembre</d:t>
+      <d:t> Octubre</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -534,25 +565,6 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t>P</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -565,7 +577,23 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: Con base en los ``Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI`` y que complementan las ``Normas Especiales para la Divulgación de Datos`` del FMI, los resultados del Indicador Mensual de la Formación Bruta de Capital Fijo incorporan la información más reciente generada por las Cuentas de Bienes y Servicios 2020 versión preliminar, así como la última información estadística disponible de los últimos dos años de la Encuesta Nacional de Empresas Constructoras, la Encuesta Mensual de la Industria Manufacturera, los registros administrativos y los datos primarios, se debe realizar la actualización de este indicador. Como resultado de incorporar dicha información, se identifican diferencias en los niveles de los índices y variaciones que fueron oportunamente publicadas.</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t>R</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="10"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Cifras revisadas</d:t>
+    </d:r>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
@@ -634,19 +662,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-09</t>
+    <t>1993-01-2021-10</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a septiembre de 2021</t>
+    <t>Serie de enero de 1993 a octubre de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2021-12-07</t>
+    <t>2022-01-10</t>
   </si>
 </sst>
 </file>
@@ -654,7 +682,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="### ### ### ### ##0.0"/>
+    <numFmt numFmtId="164" formatCode="###,###,###,###,##0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -787,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN25"/>
+  <dimension ref="A1:NN24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2750,7 +2778,7 @@
         <v>54</v>
       </c>
       <c r="NK6" s="10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="NL6" s="10" t="s">
         <v>43</v>
@@ -2764,7 +2792,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3883,24 +3911,24 @@
         <v>97.0203561634561</v>
       </c>
       <c r="NJ7" s="11">
-        <v>94.0395938798695</v>
-      </c>
-      <c r="NK7" s="14" t="s">
-        <v>56</v>
+        <v>94.0030074632734</v>
+      </c>
+      <c r="NK7" s="11">
+        <v>93.9011480993461</v>
       </c>
       <c r="NL7" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -5019,24 +5047,24 @@
         <v>90.4314312640628</v>
       </c>
       <c r="NJ8" s="12">
-        <v>84.5826285130922</v>
-      </c>
-      <c r="NK8" s="15" t="s">
-        <v>56</v>
+        <v>84.4936834601069</v>
+      </c>
+      <c r="NK8" s="12">
+        <v>82.448927856217</v>
       </c>
       <c r="NL8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6155,24 +6183,24 @@
         <v>108.099758091175</v>
       </c>
       <c r="NJ9" s="11">
-        <v>94.6262127229322</v>
-      </c>
-      <c r="NK9" s="14" t="s">
-        <v>56</v>
+        <v>94.8014653922606</v>
+      </c>
+      <c r="NK9" s="11">
+        <v>97.3877173267065</v>
       </c>
       <c r="NL9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7291,24 +7319,24 @@
         <v>77.4763069775812</v>
       </c>
       <c r="NJ10" s="12">
-        <v>77.2182706430217</v>
-      </c>
-      <c r="NK10" s="15" t="s">
-        <v>56</v>
+        <v>76.9356052472857</v>
+      </c>
+      <c r="NK10" s="12">
+        <v>71.4952095911237</v>
       </c>
       <c r="NL10" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8427,24 +8455,24 @@
         <v>107.516664889791</v>
       </c>
       <c r="NJ11" s="11">
-        <v>109.104756955729</v>
-      </c>
-      <c r="NK11" s="14" t="s">
-        <v>56</v>
+        <v>109.15157904969</v>
+      </c>
+      <c r="NK11" s="11">
+        <v>112.144798028477</v>
       </c>
       <c r="NL11" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9563,24 +9591,24 @@
         <v>101.466101561275</v>
       </c>
       <c r="NJ12" s="12">
-        <v>109.793474954966</v>
-      </c>
-      <c r="NK12" s="15" t="s">
-        <v>56</v>
+        <v>109.97160715663</v>
+      </c>
+      <c r="NK12" s="12">
+        <v>110.681322853606</v>
       </c>
       <c r="NL12" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10701,22 +10729,22 @@
       <c r="NJ13" s="11">
         <v>107.572775883498</v>
       </c>
-      <c r="NK13" s="14" t="s">
-        <v>56</v>
+      <c r="NK13" s="11">
+        <v>104.188232128549</v>
       </c>
       <c r="NL13" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11835,24 +11863,24 @@
         <v>96.8019315644638</v>
       </c>
       <c r="NJ14" s="12">
-        <v>112.611214301335</v>
-      </c>
-      <c r="NK14" s="15" t="s">
-        <v>56</v>
+        <v>113.015369974585</v>
+      </c>
+      <c r="NK14" s="12">
+        <v>118.920096603099</v>
       </c>
       <c r="NL14" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -12971,24 +12999,24 @@
         <v>111.518513235083</v>
       </c>
       <c r="NJ15" s="11">
-        <v>108.649238215411</v>
-      </c>
-      <c r="NK15" s="14" t="s">
-        <v>56</v>
+        <v>108.609211679138</v>
+      </c>
+      <c r="NK15" s="11">
+        <v>113.112741902287</v>
       </c>
       <c r="NL15" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14107,24 +14135,24 @@
         <v>92.20618371475</v>
       </c>
       <c r="NJ16" s="12">
-        <v>87.6378496219435</v>
-      </c>
-      <c r="NK16" s="15" t="s">
-        <v>56</v>
+        <v>87.4908710966149</v>
+      </c>
+      <c r="NK16" s="12">
+        <v>83.1138957514747</v>
       </c>
       <c r="NL16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15243,43 +15271,38 @@
         <v>114.714293876622</v>
       </c>
       <c r="NJ17" s="11">
-        <v>112.126177071916</v>
-      </c>
-      <c r="NK17" s="14" t="s">
-        <v>56</v>
+        <v>112.103848819831</v>
+      </c>
+      <c r="NK17" s="11">
+        <v>118.076914230454</v>
       </c>
       <c r="NL17" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15315,7 +15338,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R522e86f9172b4714"/>
+  <legacyDrawing r:id="Re6c57d3b21c94c45"/>
 </worksheet>
 </file>
 

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Ra8b0229d607e43a7"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R5121b91a43ed4e72"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R43620ab332204cea"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="Re8755662f28444b2"/>
   </sheets>
 </workbook>
 </file>
@@ -134,11 +134,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NK6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NK6" authorId="0">
+    <comment ref="NL6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -154,12 +165,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a octubre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a noviembre de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -504,6 +515,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Octubre</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -514,7 +545,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Octubre</d:t>
+      <d:t> Noviembre</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -662,19 +693,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-10</t>
+    <t>1993-01-2021-11</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a octubre de 2021</t>
+    <t>Serie de enero de 1993 a noviembre de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-01-10</t>
+    <t>2022-02-04</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2812,7 @@
         <v>55</v>
       </c>
       <c r="NL6" s="10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="NM6" s="10" t="s">
         <v>44</v>
@@ -2792,7 +2823,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3914,21 +3945,21 @@
         <v>94.0030074632734</v>
       </c>
       <c r="NK7" s="11">
-        <v>93.9011480993461</v>
-      </c>
-      <c r="NL7" s="14" t="s">
-        <v>57</v>
+        <v>93.9223961685321</v>
+      </c>
+      <c r="NL7" s="11">
+        <v>95.2334549363054</v>
       </c>
       <c r="NM7" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN7" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -5050,21 +5081,21 @@
         <v>84.4936834601069</v>
       </c>
       <c r="NK8" s="12">
-        <v>82.448927856217</v>
-      </c>
-      <c r="NL8" s="15" t="s">
-        <v>57</v>
+        <v>82.4839657039978</v>
+      </c>
+      <c r="NL8" s="12">
+        <v>83.3096773075979</v>
       </c>
       <c r="NM8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN8" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6186,21 +6217,21 @@
         <v>94.8014653922606</v>
       </c>
       <c r="NK9" s="11">
-        <v>97.3877173267065</v>
-      </c>
-      <c r="NL9" s="14" t="s">
-        <v>57</v>
+        <v>97.5221418885739</v>
+      </c>
+      <c r="NL9" s="11">
+        <v>100.17625052363</v>
       </c>
       <c r="NM9" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN9" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7322,21 +7353,21 @@
         <v>76.9356052472857</v>
       </c>
       <c r="NK10" s="12">
-        <v>71.4952095911237</v>
-      </c>
-      <c r="NL10" s="15" t="s">
-        <v>57</v>
+        <v>71.4573731228464</v>
+      </c>
+      <c r="NL10" s="12">
+        <v>70.9424308535965</v>
       </c>
       <c r="NM10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8458,21 +8489,21 @@
         <v>109.15157904969</v>
       </c>
       <c r="NK11" s="11">
-        <v>112.144798028477</v>
-      </c>
-      <c r="NL11" s="14" t="s">
-        <v>57</v>
+        <v>112.144078663581</v>
+      </c>
+      <c r="NL11" s="11">
+        <v>114.228306613338</v>
       </c>
       <c r="NM11" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN11" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9596,19 +9627,19 @@
       <c r="NK12" s="12">
         <v>110.681322853606</v>
       </c>
-      <c r="NL12" s="15" t="s">
-        <v>57</v>
+      <c r="NL12" s="12">
+        <v>99.0761975356199</v>
       </c>
       <c r="NM12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN12" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10732,19 +10763,19 @@
       <c r="NK13" s="11">
         <v>104.188232128549</v>
       </c>
-      <c r="NL13" s="14" t="s">
-        <v>57</v>
+      <c r="NL13" s="11">
+        <v>77.4387694087301</v>
       </c>
       <c r="NM13" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN13" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11868,19 +11899,19 @@
       <c r="NK14" s="12">
         <v>118.920096603099</v>
       </c>
-      <c r="NL14" s="15" t="s">
-        <v>57</v>
+      <c r="NL14" s="12">
+        <v>126.530900142876</v>
       </c>
       <c r="NM14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -13002,21 +13033,21 @@
         <v>108.609211679138</v>
       </c>
       <c r="NK15" s="11">
-        <v>113.112741902287</v>
-      </c>
-      <c r="NL15" s="14" t="s">
-        <v>57</v>
+        <v>113.111546748763</v>
+      </c>
+      <c r="NL15" s="11">
+        <v>124.249925981332</v>
       </c>
       <c r="NM15" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN15" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14140,19 +14171,19 @@
       <c r="NK16" s="12">
         <v>83.1138957514747</v>
       </c>
-      <c r="NL16" s="15" t="s">
-        <v>57</v>
+      <c r="NL16" s="12">
+        <v>107.673454681842</v>
       </c>
       <c r="NM16" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN16" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15274,31 +15305,31 @@
         <v>112.103848819831</v>
       </c>
       <c r="NK17" s="11">
-        <v>118.076914230454</v>
-      </c>
-      <c r="NL17" s="14" t="s">
-        <v>57</v>
+        <v>118.075521304389</v>
+      </c>
+      <c r="NL17" s="11">
+        <v>126.99298015448</v>
       </c>
       <c r="NM17" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="NN17" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -15338,7 +15369,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Re6c57d3b21c94c45"/>
+  <legacyDrawing r:id="Re0aa76917c3f4702"/>
 </worksheet>
 </file>
 
@@ -15355,106 +15386,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R43620ab332204cea"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="Re8755662f28444b2"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rc2b64bb4b69a4795"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R10dbece2ca294123"/>
   </sheets>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -79,7 +79,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -90,7 +90,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -123,7 +123,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -134,7 +134,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">P. Cifras preliminares</t>
+          <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
@@ -156,6 +156,17 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">R. Cifras revisadas</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NM6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
@@ -165,12 +176,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a noviembre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a diciembre de 2021</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -355,7 +366,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -375,7 +386,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -395,7 +406,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -415,7 +426,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -435,7 +446,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -455,7 +466,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -475,7 +486,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -495,7 +506,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -515,7 +526,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">P</d:t>
+      <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
   <si>
@@ -555,14 +566,31 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">R</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Diciembre</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
     <t xml:space="preserve">     Total</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">     Construcción</t>
@@ -625,6 +653,9 @@
       </d:rPr>
       <d:t xml:space="preserve">Cifras revisadas</d:t>
     </d:r>
+  </si>
+  <si>
+    <t>Nota: El Indicador Mensual de la Formación Bruta de Capital Fijo se actualiza una vez teniendo la última información estadística de encuestas, registros administrativos y datos primarios de 2021 y se hace con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI. Incorporar la información más reciente permite identificar posibles diferencias en los niveles de los índices y variaciones que fueron publicados oportunamente.</t>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
@@ -693,19 +724,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-11</t>
+    <t>1993-01-2021-12</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a noviembre de 2021</t>
+    <t>Serie de enero de 1993 a diciembre de 2021</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-02-04</t>
+    <t>2022-03-04</t>
   </si>
 </sst>
 </file>
@@ -798,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" xfId="0"/>
     <xf numFmtId="0" fontId="2" xfId="0"/>
@@ -829,12 +860,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -846,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN24"/>
+  <dimension ref="A1:NN25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2815,7 +2840,7 @@
         <v>56</v>
       </c>
       <c r="NM6" s="10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="NN6" s="10" t="s">
         <v>45</v>
@@ -2823,7 +2848,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3918,13 +3943,13 @@
         <v>84.786187127075</v>
       </c>
       <c r="NB7" s="11">
-        <v>90.4885169009836</v>
+        <v>90.5002119835422</v>
       </c>
       <c r="NC7" s="11">
-        <v>90.8223160591197</v>
+        <v>90.8340111416783</v>
       </c>
       <c r="ND7" s="11">
-        <v>93.7635218275728</v>
+        <v>93.7752169101313</v>
       </c>
       <c r="NE7" s="11">
         <v>88.9215130572554</v>
@@ -3933,28 +3958,28 @@
         <v>93.8208557584863</v>
       </c>
       <c r="NG7" s="11">
-        <v>91.5513777774452</v>
+        <v>91.5484540068055</v>
       </c>
       <c r="NH7" s="11">
-        <v>92.2122408149394</v>
+        <v>92.2005457323808</v>
       </c>
       <c r="NI7" s="11">
-        <v>97.0203561634561</v>
+        <v>97.0031289215855</v>
       </c>
       <c r="NJ7" s="11">
-        <v>94.0030074632734</v>
+        <v>94.0030513552716</v>
       </c>
       <c r="NK7" s="11">
-        <v>93.9223961685321</v>
+        <v>93.9257124999928</v>
       </c>
       <c r="NL7" s="11">
-        <v>95.2334549363054</v>
-      </c>
-      <c r="NM7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN7" s="14" t="s">
-        <v>58</v>
+        <v>95.2097725782645</v>
+      </c>
+      <c r="NM7" s="11">
+        <v>97.7808999787037</v>
+      </c>
+      <c r="NN7" s="11">
+        <v>93.2936144936748</v>
       </c>
     </row>
     <row r="8">
@@ -5054,13 +5079,13 @@
         <v>79.4991325986992</v>
       </c>
       <c r="NB8" s="12">
-        <v>86.9209032688321</v>
+        <v>86.9399397913844</v>
       </c>
       <c r="NC8" s="12">
-        <v>88.8049742815979</v>
+        <v>88.8240108041502</v>
       </c>
       <c r="ND8" s="12">
-        <v>80.9865787296859</v>
+        <v>81.0056152522382</v>
       </c>
       <c r="NE8" s="12">
         <v>80.8502055340998</v>
@@ -5069,13 +5094,13 @@
         <v>84.8490764586654</v>
       </c>
       <c r="NG8" s="12">
-        <v>79.7725301365997</v>
+        <v>79.7677710059616</v>
       </c>
       <c r="NH8" s="12">
-        <v>81.0923735862815</v>
+        <v>81.0733370637292</v>
       </c>
       <c r="NI8" s="12">
-        <v>90.4314312640628</v>
+        <v>90.4028764802343</v>
       </c>
       <c r="NJ8" s="12">
         <v>84.4936834601069</v>
@@ -5086,11 +5111,11 @@
       <c r="NL8" s="12">
         <v>83.3096773075979</v>
       </c>
-      <c r="NM8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN8" s="15" t="s">
-        <v>58</v>
+      <c r="NM8" s="12">
+        <v>83.6701344390211</v>
+      </c>
+      <c r="NN8" s="12">
+        <v>83.9725244417656</v>
       </c>
     </row>
     <row r="9">
@@ -6222,11 +6247,11 @@
       <c r="NL9" s="11">
         <v>100.17625052363</v>
       </c>
-      <c r="NM9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN9" s="14" t="s">
-        <v>58</v>
+      <c r="NM9" s="11">
+        <v>102.672613644754</v>
+      </c>
+      <c r="NN9" s="11">
+        <v>102.391305835686</v>
       </c>
     </row>
     <row r="10">
@@ -7326,13 +7351,13 @@
         <v>67.4321256552352</v>
       </c>
       <c r="NB10" s="12">
-        <v>75.5759213599844</v>
+        <v>75.6089162226819</v>
       </c>
       <c r="NC10" s="12">
-        <v>70.6616141993103</v>
+        <v>70.6946090620078</v>
       </c>
       <c r="ND10" s="12">
-        <v>66.8765370755598</v>
+        <v>66.9095319382572</v>
       </c>
       <c r="NE10" s="12">
         <v>66.3307710665326</v>
@@ -7341,13 +7366,13 @@
         <v>66.1672356963311</v>
       </c>
       <c r="NG10" s="12">
-        <v>67.6816124747687</v>
+        <v>67.6733637590943</v>
       </c>
       <c r="NH10" s="12">
-        <v>65.7552289921253</v>
+        <v>65.7222341294279</v>
       </c>
       <c r="NI10" s="12">
-        <v>77.4763069775812</v>
+        <v>77.426814683535</v>
       </c>
       <c r="NJ10" s="12">
         <v>76.9356052472857</v>
@@ -7358,11 +7383,11 @@
       <c r="NL10" s="12">
         <v>70.9424308535965</v>
       </c>
-      <c r="NM10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN10" s="15" t="s">
-        <v>58</v>
+      <c r="NM10" s="12">
+        <v>69.7367562379908</v>
+      </c>
+      <c r="NN10" s="12">
+        <v>70.4671368349656</v>
       </c>
     </row>
     <row r="11">
@@ -8483,22 +8508,22 @@
         <v>109.926444757163</v>
       </c>
       <c r="NI11" s="11">
-        <v>107.516664889791</v>
+        <v>107.517482682477</v>
       </c>
       <c r="NJ11" s="11">
-        <v>109.15157904969</v>
+        <v>109.15169286265</v>
       </c>
       <c r="NK11" s="11">
-        <v>112.144078663581</v>
+        <v>112.152677987242</v>
       </c>
       <c r="NL11" s="11">
-        <v>114.228306613338</v>
-      </c>
-      <c r="NM11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN11" s="14" t="s">
-        <v>58</v>
+        <v>114.166897714904</v>
+      </c>
+      <c r="NM11" s="11">
+        <v>120.259673637678</v>
+      </c>
+      <c r="NN11" s="11">
+        <v>108.142325071605</v>
       </c>
     </row>
     <row r="12">
@@ -9630,11 +9655,11 @@
       <c r="NL12" s="12">
         <v>99.0761975356199</v>
       </c>
-      <c r="NM12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN12" s="15" t="s">
-        <v>58</v>
+      <c r="NM12" s="12">
+        <v>104.437813032906</v>
+      </c>
+      <c r="NN12" s="12">
+        <v>103.74068267103</v>
       </c>
     </row>
     <row r="13">
@@ -10766,11 +10791,11 @@
       <c r="NL13" s="11">
         <v>77.4387694087301</v>
       </c>
-      <c r="NM13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN13" s="14" t="s">
-        <v>58</v>
+      <c r="NM13" s="11">
+        <v>88.2600259822298</v>
+      </c>
+      <c r="NN13" s="11">
+        <v>100.370364321608</v>
       </c>
     </row>
     <row r="14">
@@ -11902,11 +11927,11 @@
       <c r="NL14" s="12">
         <v>126.530900142876</v>
       </c>
-      <c r="NM14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN14" s="15" t="s">
-        <v>58</v>
+      <c r="NM14" s="12">
+        <v>124.965036957817</v>
+      </c>
+      <c r="NN14" s="12">
+        <v>108.017119197244</v>
       </c>
     </row>
     <row r="15">
@@ -13027,22 +13052,22 @@
         <v>113.649535976562</v>
       </c>
       <c r="NI15" s="11">
-        <v>111.518513235083</v>
+        <v>111.51987191663</v>
       </c>
       <c r="NJ15" s="11">
-        <v>108.609211679138</v>
+        <v>108.609400768097</v>
       </c>
       <c r="NK15" s="11">
-        <v>113.111546748763</v>
+        <v>113.12583367328</v>
       </c>
       <c r="NL15" s="11">
-        <v>124.249925981332</v>
-      </c>
-      <c r="NM15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN15" s="14" t="s">
-        <v>58</v>
+        <v>124.147901179016</v>
+      </c>
+      <c r="NM15" s="11">
+        <v>130.724267303233</v>
+      </c>
+      <c r="NN15" s="11">
+        <v>111.053575545472</v>
       </c>
     </row>
     <row r="16">
@@ -14163,22 +14188,22 @@
         <v>87.7230286806358</v>
       </c>
       <c r="NI16" s="12">
-        <v>92.20618371475</v>
+        <v>92.130290841107</v>
       </c>
       <c r="NJ16" s="12">
         <v>87.4908710966149</v>
       </c>
       <c r="NK16" s="12">
-        <v>83.1138957514747</v>
+        <v>83.1390620436592</v>
       </c>
       <c r="NL16" s="12">
-        <v>107.673454681842</v>
-      </c>
-      <c r="NM16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN16" s="15" t="s">
-        <v>58</v>
+        <v>107.697857919682</v>
+      </c>
+      <c r="NM16" s="12">
+        <v>96.6822956165434</v>
+      </c>
+      <c r="NN16" s="12">
+        <v>89.647292812724</v>
       </c>
     </row>
     <row r="17">
@@ -15299,22 +15324,22 @@
         <v>117.939822657504</v>
       </c>
       <c r="NI17" s="11">
-        <v>114.714293876622</v>
+        <v>114.728436050929</v>
       </c>
       <c r="NJ17" s="11">
-        <v>112.103848819831</v>
+        <v>112.104069199</v>
       </c>
       <c r="NK17" s="11">
-        <v>118.075521304389</v>
+        <v>118.088007924465</v>
       </c>
       <c r="NL17" s="11">
-        <v>126.99298015448</v>
-      </c>
-      <c r="NM17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="NN17" s="14" t="s">
-        <v>58</v>
+        <v>126.870034194886</v>
+      </c>
+      <c r="NM17" s="11">
+        <v>136.357491094366</v>
+      </c>
+      <c r="NN17" s="11">
+        <v>114.595861000606</v>
       </c>
     </row>
     <row r="21">
@@ -15333,7 +15358,12 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15369,7 +15399,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Re0aa76917c3f4702"/>
+  <legacyDrawing r:id="R819da3f4254f42dc"/>
 </worksheet>
 </file>
 
@@ -15385,107 +15415,107 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="16" t="s">
-        <v>70</v>
+      <c r="B2" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="16" t="s">
-        <v>72</v>
+      <c r="B3" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="16" t="s">
-        <v>74</v>
+      <c r="B4" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="16" t="s">
-        <v>76</v>
+      <c r="B5" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="16" t="s">
-        <v>78</v>
+      <c r="B6" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="16" t="s">
-        <v>80</v>
+      <c r="B7" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="16" t="s">
-        <v>82</v>
+      <c r="B8" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="16" t="s">
-        <v>84</v>
+      <c r="B9" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="16" t="s">
-        <v>86</v>
+      <c r="B10" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="16" t="s">
-        <v>88</v>
+      <c r="B11" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="16" t="s">
-        <v>90</v>
+      <c r="B12" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="16" t="s">
-        <v>92</v>
+      <c r="B13" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="16" t="s">
-        <v>94</v>
+      <c r="B14" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rc2b64bb4b69a4795"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R10dbece2ca294123"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R09aa052e1e89463b"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R5f2ff6f6a0cd49be"/>
   </sheets>
 </workbook>
 </file>
@@ -39,128 +39,18 @@
         </d:r>
       </text>
     </comment>
-    <comment ref="NB6" authorId="0">
+    <comment ref="NB5" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NC6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="ND6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NE6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NF6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NG6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NH6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NI6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NJ6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NK6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NL6" authorId="0">
-      <text>
-        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
-        </d:r>
-      </text>
-    </comment>
-    <comment ref="NM6" authorId="0">
+    <comment ref="NO6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -176,12 +66,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a diciembre de 2021</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a enero de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -308,7 +198,27 @@
     </d:r>
   </si>
   <si>
-    <t>2021</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> 2021</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
   <si>
     <t>Enero</t>
@@ -366,231 +276,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Febrero</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Marzo</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Abril</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Mayo</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Junio</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Julio</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Agosto</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Septiembre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Octubre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Noviembre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:sz val="10"/>
-        <d:rFont val="Calibri"/>
-      </d:rPr>
-      <d:t> Diciembre</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:b/>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
     <t xml:space="preserve">     Total</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">     Construcción</t>
@@ -634,28 +327,6 @@
       </d:rPr>
       <d:t xml:space="preserve">Cifras preliminares</d:t>
     </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <t>Nota: El Indicador Mensual de la Formación Bruta de Capital Fijo se actualiza una vez teniendo la última información estadística de encuestas, registros administrativos y datos primarios de 2021 y se hace con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI. Incorporar la información más reciente permite identificar posibles diferencias en los niveles de los índices y variaciones que fueron publicados oportunamente.</t>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
@@ -724,19 +395,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2021-12</t>
+    <t>1993-01-2022-01</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a diciembre de 2021</t>
+    <t>Serie de enero de 1993 a enero de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-03-04</t>
+    <t>2022-04-06</t>
   </si>
 </sst>
 </file>
@@ -829,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" xfId="0"/>
     <xf numFmtId="0" fontId="2" xfId="0"/>
@@ -860,6 +531,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" borderId="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:NN25"/>
+  <dimension ref="A1:OA23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1255,6 +932,19 @@
     <col min="376" max="376" width="14" customWidth="1"/>
     <col min="377" max="377" width="14" customWidth="1"/>
     <col min="378" max="378" width="14" customWidth="1"/>
+    <col min="379" max="379" width="14" customWidth="1"/>
+    <col min="380" max="380" width="14" customWidth="1"/>
+    <col min="381" max="381" width="14" customWidth="1"/>
+    <col min="382" max="382" width="14" customWidth="1"/>
+    <col min="383" max="383" width="14" customWidth="1"/>
+    <col min="384" max="384" width="14" customWidth="1"/>
+    <col min="385" max="385" width="14" customWidth="1"/>
+    <col min="386" max="386" width="14" customWidth="1"/>
+    <col min="387" max="387" width="14" customWidth="1"/>
+    <col min="388" max="388" width="14" customWidth="1"/>
+    <col min="389" max="389" width="14" customWidth="1"/>
+    <col min="390" max="390" width="14" customWidth="1"/>
+    <col min="391" max="391" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1711,1144 +1401,1198 @@
       <c r="NL5" s="13"/>
       <c r="NM5" s="13"/>
       <c r="NN5" s="13"/>
+      <c r="NO5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="NP5" s="13"/>
+      <c r="NQ5" s="13"/>
+      <c r="NR5" s="13"/>
+      <c r="NS5" s="13"/>
+      <c r="NT5" s="13"/>
+      <c r="NU5" s="13"/>
+      <c r="NV5" s="13"/>
+      <c r="NW5" s="13"/>
+      <c r="NX5" s="13"/>
+      <c r="NY5" s="13"/>
+      <c r="NZ5" s="13"/>
+      <c r="OA5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="7"/>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="Z6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="10" t="s">
+      <c r="AA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="AC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="AD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="AE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="AF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="AG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="AH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="AJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="AK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AH6" s="10" t="s">
+      <c r="AT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AK6" s="10" t="s">
+      <c r="AW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AN6" s="10" t="s">
+      <c r="AZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP6" s="10" t="s">
+      <c r="BA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AQ6" s="10" t="s">
+      <c r="BC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AR6" s="10" t="s">
+      <c r="BD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AS6" s="10" t="s">
+      <c r="BE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="10" t="s">
+      <c r="BF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AU6" s="10" t="s">
+      <c r="BG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AV6" s="10" t="s">
+      <c r="BH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AW6" s="10" t="s">
+      <c r="BI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AX6" s="10" t="s">
+      <c r="BJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AY6" s="10" t="s">
+      <c r="BK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AZ6" s="10" t="s">
+      <c r="BL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BA6" s="10" t="s">
+      <c r="BM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="BC6" s="10" t="s">
+      <c r="BN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="BD6" s="10" t="s">
+      <c r="BP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BE6" s="10" t="s">
+      <c r="BQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BF6" s="10" t="s">
+      <c r="BR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BG6" s="10" t="s">
+      <c r="BS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BH6" s="10" t="s">
+      <c r="BT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BI6" s="10" t="s">
+      <c r="BU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BJ6" s="10" t="s">
+      <c r="BV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BK6" s="10" t="s">
+      <c r="BW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BL6" s="10" t="s">
+      <c r="BX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BM6" s="10" t="s">
+      <c r="BY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BN6" s="10" t="s">
+      <c r="BZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="BP6" s="10" t="s">
+      <c r="CA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="CB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="BQ6" s="10" t="s">
+      <c r="CC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="BR6" s="10" t="s">
+      <c r="CD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="BS6" s="10" t="s">
+      <c r="CE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="BT6" s="10" t="s">
+      <c r="CF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="BU6" s="10" t="s">
+      <c r="CG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="BV6" s="10" t="s">
+      <c r="CH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BW6" s="10" t="s">
+      <c r="CI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BX6" s="10" t="s">
+      <c r="CJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BY6" s="10" t="s">
+      <c r="CK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BZ6" s="10" t="s">
+      <c r="CL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="CA6" s="10" t="s">
+      <c r="CM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="CC6" s="10" t="s">
+      <c r="CN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="CO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="CD6" s="10" t="s">
+      <c r="CP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="CE6" s="10" t="s">
+      <c r="CQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="CF6" s="10" t="s">
+      <c r="CR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="CG6" s="10" t="s">
+      <c r="CS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="CH6" s="10" t="s">
+      <c r="CT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="CI6" s="10" t="s">
+      <c r="CU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CJ6" s="10" t="s">
+      <c r="CV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="CK6" s="10" t="s">
+      <c r="CW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="CL6" s="10" t="s">
+      <c r="CX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="CM6" s="10" t="s">
+      <c r="CY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="CN6" s="10" t="s">
+      <c r="CZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP6" s="10" t="s">
+      <c r="DA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="DB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="CQ6" s="10" t="s">
+      <c r="DC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="CR6" s="10" t="s">
+      <c r="DD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="CS6" s="10" t="s">
+      <c r="DE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="CT6" s="10" t="s">
+      <c r="DF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="CU6" s="10" t="s">
+      <c r="DG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="CV6" s="10" t="s">
+      <c r="DH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="CW6" s="10" t="s">
+      <c r="DI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="CX6" s="10" t="s">
+      <c r="DJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="CY6" s="10" t="s">
+      <c r="DK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="CZ6" s="10" t="s">
+      <c r="DL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="DA6" s="10" t="s">
+      <c r="DM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="DB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="DC6" s="10" t="s">
+      <c r="DN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="DO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="DD6" s="10" t="s">
+      <c r="DP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="DE6" s="10" t="s">
+      <c r="DQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="DF6" s="10" t="s">
+      <c r="DR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="DG6" s="10" t="s">
+      <c r="DS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="DH6" s="10" t="s">
+      <c r="DT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="DI6" s="10" t="s">
+      <c r="DU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="DJ6" s="10" t="s">
+      <c r="DV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="DK6" s="10" t="s">
+      <c r="DW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="DL6" s="10" t="s">
+      <c r="DX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="DM6" s="10" t="s">
+      <c r="DY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="DN6" s="10" t="s">
+      <c r="DZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="DO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="DP6" s="10" t="s">
+      <c r="EA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="EB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="DQ6" s="10" t="s">
+      <c r="EC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="DR6" s="10" t="s">
+      <c r="ED6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="DS6" s="10" t="s">
+      <c r="EE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="DT6" s="10" t="s">
+      <c r="EF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="DU6" s="10" t="s">
+      <c r="EG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="DV6" s="10" t="s">
+      <c r="EH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="DW6" s="10" t="s">
+      <c r="EI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="DX6" s="10" t="s">
+      <c r="EJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="DY6" s="10" t="s">
+      <c r="EK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="DZ6" s="10" t="s">
+      <c r="EL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="EA6" s="10" t="s">
+      <c r="EM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="EB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="EC6" s="10" t="s">
+      <c r="EN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="EO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="ED6" s="10" t="s">
+      <c r="EP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="EE6" s="10" t="s">
+      <c r="EQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="EF6" s="10" t="s">
+      <c r="ER6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="EG6" s="10" t="s">
+      <c r="ES6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="EH6" s="10" t="s">
+      <c r="ET6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="EI6" s="10" t="s">
+      <c r="EU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="EJ6" s="10" t="s">
+      <c r="EV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="EK6" s="10" t="s">
+      <c r="EW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="EL6" s="10" t="s">
+      <c r="EX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="EM6" s="10" t="s">
+      <c r="EY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="EN6" s="10" t="s">
+      <c r="EZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="EO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="EP6" s="10" t="s">
+      <c r="FA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="FB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="EQ6" s="10" t="s">
+      <c r="FC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="ER6" s="10" t="s">
+      <c r="FD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="ES6" s="10" t="s">
+      <c r="FE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="ET6" s="10" t="s">
+      <c r="FF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="EU6" s="10" t="s">
+      <c r="FG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="EV6" s="10" t="s">
+      <c r="FH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="EW6" s="10" t="s">
+      <c r="FI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="EX6" s="10" t="s">
+      <c r="FJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="EY6" s="10" t="s">
+      <c r="FK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="EZ6" s="10" t="s">
+      <c r="FL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="FA6" s="10" t="s">
+      <c r="FM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="FB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="FC6" s="10" t="s">
+      <c r="FN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="FO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="FD6" s="10" t="s">
+      <c r="FP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="FE6" s="10" t="s">
+      <c r="FQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="FF6" s="10" t="s">
+      <c r="FR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="FG6" s="10" t="s">
+      <c r="FS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="FH6" s="10" t="s">
+      <c r="FT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="FI6" s="10" t="s">
+      <c r="FU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="FJ6" s="10" t="s">
+      <c r="FV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="FK6" s="10" t="s">
+      <c r="FW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="FL6" s="10" t="s">
+      <c r="FX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="FM6" s="10" t="s">
+      <c r="FY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="FN6" s="10" t="s">
+      <c r="FZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="FO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="FP6" s="10" t="s">
+      <c r="GA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="GB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="FQ6" s="10" t="s">
+      <c r="GC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="FR6" s="10" t="s">
+      <c r="GD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="FS6" s="10" t="s">
+      <c r="GE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="FT6" s="10" t="s">
+      <c r="GF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="FU6" s="10" t="s">
+      <c r="GG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="FV6" s="10" t="s">
+      <c r="GH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="FW6" s="10" t="s">
+      <c r="GI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="FX6" s="10" t="s">
+      <c r="GJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="FY6" s="10" t="s">
+      <c r="GK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="FZ6" s="10" t="s">
+      <c r="GL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="GA6" s="10" t="s">
+      <c r="GM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="GB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="GC6" s="10" t="s">
+      <c r="GN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="GO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="GD6" s="10" t="s">
+      <c r="GP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="GE6" s="10" t="s">
+      <c r="GQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="GF6" s="10" t="s">
+      <c r="GR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="GG6" s="10" t="s">
+      <c r="GS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="GH6" s="10" t="s">
+      <c r="GT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="GI6" s="10" t="s">
+      <c r="GU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="GJ6" s="10" t="s">
+      <c r="GV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="GK6" s="10" t="s">
+      <c r="GW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="GL6" s="10" t="s">
+      <c r="GX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="GM6" s="10" t="s">
+      <c r="GY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="GN6" s="10" t="s">
+      <c r="GZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="GO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="GP6" s="10" t="s">
+      <c r="HA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="HB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="GQ6" s="10" t="s">
+      <c r="HC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="GR6" s="10" t="s">
+      <c r="HD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="GS6" s="10" t="s">
+      <c r="HE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="GT6" s="10" t="s">
+      <c r="HF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="GU6" s="10" t="s">
+      <c r="HG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="GV6" s="10" t="s">
+      <c r="HH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="GW6" s="10" t="s">
+      <c r="HI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="GX6" s="10" t="s">
+      <c r="HJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="GY6" s="10" t="s">
+      <c r="HK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="GZ6" s="10" t="s">
+      <c r="HL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="HA6" s="10" t="s">
+      <c r="HM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="HB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="HC6" s="10" t="s">
+      <c r="HN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="HO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="HD6" s="10" t="s">
+      <c r="HP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="HE6" s="10" t="s">
+      <c r="HQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="HF6" s="10" t="s">
+      <c r="HR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="HG6" s="10" t="s">
+      <c r="HS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="HH6" s="10" t="s">
+      <c r="HT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="HI6" s="10" t="s">
+      <c r="HU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="HJ6" s="10" t="s">
+      <c r="HV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="HK6" s="10" t="s">
+      <c r="HW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="HL6" s="10" t="s">
+      <c r="HX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="HM6" s="10" t="s">
+      <c r="HY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="HN6" s="10" t="s">
+      <c r="HZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="HO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="HP6" s="10" t="s">
+      <c r="IA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="IB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="HQ6" s="10" t="s">
+      <c r="IC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="HR6" s="10" t="s">
+      <c r="ID6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="HS6" s="10" t="s">
+      <c r="IE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="HT6" s="10" t="s">
+      <c r="IF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="HU6" s="10" t="s">
+      <c r="IG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="HV6" s="10" t="s">
+      <c r="IH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="HW6" s="10" t="s">
+      <c r="II6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="HX6" s="10" t="s">
+      <c r="IJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="HY6" s="10" t="s">
+      <c r="IK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="HZ6" s="10" t="s">
+      <c r="IL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="IA6" s="10" t="s">
+      <c r="IM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="IB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="IC6" s="10" t="s">
+      <c r="IN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="IO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="ID6" s="10" t="s">
+      <c r="IP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="IE6" s="10" t="s">
+      <c r="IQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="IF6" s="10" t="s">
+      <c r="IR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="IG6" s="10" t="s">
+      <c r="IS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="IH6" s="10" t="s">
+      <c r="IT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="II6" s="10" t="s">
+      <c r="IU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="IJ6" s="10" t="s">
+      <c r="IV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="IK6" s="10" t="s">
+      <c r="IW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="IL6" s="10" t="s">
+      <c r="IX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="IM6" s="10" t="s">
+      <c r="IY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="IN6" s="10" t="s">
+      <c r="IZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="IO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="IP6" s="10" t="s">
+      <c r="JA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="JB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="IQ6" s="10" t="s">
+      <c r="JC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="IR6" s="10" t="s">
+      <c r="JD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="IS6" s="10" t="s">
+      <c r="JE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="IT6" s="10" t="s">
+      <c r="JF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="IU6" s="10" t="s">
+      <c r="JG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="IV6" s="10" t="s">
+      <c r="JH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="IW6" s="10" t="s">
+      <c r="JI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="IX6" s="10" t="s">
+      <c r="JJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="IY6" s="10" t="s">
+      <c r="JK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="IZ6" s="10" t="s">
+      <c r="JL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="JA6" s="10" t="s">
+      <c r="JM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="JB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="JC6" s="10" t="s">
+      <c r="JN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="JO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="JD6" s="10" t="s">
+      <c r="JP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="JE6" s="10" t="s">
+      <c r="JQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="JF6" s="10" t="s">
+      <c r="JR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="JG6" s="10" t="s">
+      <c r="JS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="JH6" s="10" t="s">
+      <c r="JT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="JI6" s="10" t="s">
+      <c r="JU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="JJ6" s="10" t="s">
+      <c r="JV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="JK6" s="10" t="s">
+      <c r="JW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="JL6" s="10" t="s">
+      <c r="JX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="JM6" s="10" t="s">
+      <c r="JY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="JN6" s="10" t="s">
+      <c r="JZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="JO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="JP6" s="10" t="s">
+      <c r="KA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="KB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="JQ6" s="10" t="s">
+      <c r="KC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="JR6" s="10" t="s">
+      <c r="KD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="JS6" s="10" t="s">
+      <c r="KE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="JT6" s="10" t="s">
+      <c r="KF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="JU6" s="10" t="s">
+      <c r="KG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="JV6" s="10" t="s">
+      <c r="KH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="JW6" s="10" t="s">
+      <c r="KI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="JX6" s="10" t="s">
+      <c r="KJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="JY6" s="10" t="s">
+      <c r="KK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="JZ6" s="10" t="s">
+      <c r="KL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="KA6" s="10" t="s">
+      <c r="KM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="KB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="KC6" s="10" t="s">
+      <c r="KN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="KO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="KD6" s="10" t="s">
+      <c r="KP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="KE6" s="10" t="s">
+      <c r="KQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="KF6" s="10" t="s">
+      <c r="KR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="KG6" s="10" t="s">
+      <c r="KS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="KH6" s="10" t="s">
+      <c r="KT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="KI6" s="10" t="s">
+      <c r="KU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="KJ6" s="10" t="s">
+      <c r="KV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="KK6" s="10" t="s">
+      <c r="KW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="KL6" s="10" t="s">
+      <c r="KX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="KM6" s="10" t="s">
+      <c r="KY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="KN6" s="10" t="s">
+      <c r="KZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="KO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="KP6" s="10" t="s">
+      <c r="LA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="LB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="KQ6" s="10" t="s">
+      <c r="LC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="KR6" s="10" t="s">
+      <c r="LD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="KS6" s="10" t="s">
+      <c r="LE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="KT6" s="10" t="s">
+      <c r="LF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="KU6" s="10" t="s">
+      <c r="LG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="KV6" s="10" t="s">
+      <c r="LH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="KW6" s="10" t="s">
+      <c r="LI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="KX6" s="10" t="s">
+      <c r="LJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="KY6" s="10" t="s">
+      <c r="LK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="KZ6" s="10" t="s">
+      <c r="LL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="LA6" s="10" t="s">
+      <c r="LM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="LB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="LC6" s="10" t="s">
+      <c r="LN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="LO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="LD6" s="10" t="s">
+      <c r="LP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="LE6" s="10" t="s">
+      <c r="LQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="LF6" s="10" t="s">
+      <c r="LR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="LG6" s="10" t="s">
+      <c r="LS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="LH6" s="10" t="s">
+      <c r="LT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="LI6" s="10" t="s">
+      <c r="LU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="LJ6" s="10" t="s">
+      <c r="LV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="LK6" s="10" t="s">
+      <c r="LW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="LL6" s="10" t="s">
+      <c r="LX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="LM6" s="10" t="s">
+      <c r="LY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="LN6" s="10" t="s">
+      <c r="LZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="LO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="LP6" s="10" t="s">
+      <c r="MA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="MB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="LQ6" s="10" t="s">
+      <c r="MC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="LR6" s="10" t="s">
+      <c r="MD6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="LS6" s="10" t="s">
+      <c r="ME6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="LT6" s="10" t="s">
+      <c r="MF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="LU6" s="10" t="s">
+      <c r="MG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="LV6" s="10" t="s">
+      <c r="MH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="LW6" s="10" t="s">
+      <c r="MI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="LX6" s="10" t="s">
+      <c r="MJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="LY6" s="10" t="s">
+      <c r="MK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="LZ6" s="10" t="s">
+      <c r="ML6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="MA6" s="10" t="s">
+      <c r="MM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="MB6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="MC6" s="10" t="s">
+      <c r="MN6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="MO6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="MD6" s="10" t="s">
+      <c r="MP6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="ME6" s="10" t="s">
+      <c r="MQ6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="MF6" s="10" t="s">
+      <c r="MR6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="MG6" s="10" t="s">
+      <c r="MS6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="MH6" s="10" t="s">
+      <c r="MT6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="MI6" s="10" t="s">
+      <c r="MU6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="MJ6" s="10" t="s">
+      <c r="MV6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="MK6" s="10" t="s">
+      <c r="MW6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="ML6" s="10" t="s">
+      <c r="MX6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="MM6" s="10" t="s">
+      <c r="MY6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="MN6" s="10" t="s">
+      <c r="MZ6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="MO6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="MP6" s="10" t="s">
+      <c r="NA6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="NB6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="MQ6" s="10" t="s">
+      <c r="NC6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="MR6" s="10" t="s">
+      <c r="ND6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="MS6" s="10" t="s">
+      <c r="NE6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="MT6" s="10" t="s">
+      <c r="NF6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="MU6" s="10" t="s">
+      <c r="NG6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="MV6" s="10" t="s">
+      <c r="NH6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="MW6" s="10" t="s">
+      <c r="NI6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="MX6" s="10" t="s">
+      <c r="NJ6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="MY6" s="10" t="s">
+      <c r="NK6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="MZ6" s="10" t="s">
+      <c r="NL6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="NA6" s="10" t="s">
+      <c r="NM6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="NB6" s="10" t="s">
+      <c r="NN6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="NC6" s="10" t="s">
+      <c r="NO6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="ND6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="NE6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="NF6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="NG6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="NH6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="NI6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="NJ6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="NK6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="NL6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="NM6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="NN6" s="10" t="s">
+      <c r="NP6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="NQ6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="NR6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="NS6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="NT6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="NU6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="NV6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="NW6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="NX6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="NY6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="NZ6" s="10" t="s">
         <v>45</v>
+      </c>
+      <c r="OA6" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3980,11 +3724,50 @@
       </c>
       <c r="NN7" s="11">
         <v>93.2936144936748</v>
+      </c>
+      <c r="NO7" s="11">
+        <v>98.2949094428707</v>
+      </c>
+      <c r="NP7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA7" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -5116,11 +4899,50 @@
       </c>
       <c r="NN8" s="12">
         <v>83.9725244417656</v>
+      </c>
+      <c r="NO8" s="12">
+        <v>95.6141907101366</v>
+      </c>
+      <c r="NP8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA8" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6252,11 +6074,50 @@
       </c>
       <c r="NN9" s="11">
         <v>102.391305835686</v>
+      </c>
+      <c r="NO9" s="11">
+        <v>97.4579588232144</v>
+      </c>
+      <c r="NP9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA9" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7388,11 +7249,50 @@
       </c>
       <c r="NN10" s="12">
         <v>70.4671368349656</v>
+      </c>
+      <c r="NO10" s="12">
+        <v>94.2622661451165</v>
+      </c>
+      <c r="NP10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA10" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8524,11 +8424,50 @@
       </c>
       <c r="NN11" s="11">
         <v>108.142325071605</v>
+      </c>
+      <c r="NO11" s="11">
+        <v>102.56535596592</v>
+      </c>
+      <c r="NP11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA11" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9660,11 +9599,50 @@
       </c>
       <c r="NN12" s="12">
         <v>103.74068267103</v>
+      </c>
+      <c r="NO12" s="12">
+        <v>97.3529428726603</v>
+      </c>
+      <c r="NP12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA12" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10796,11 +10774,50 @@
       </c>
       <c r="NN13" s="11">
         <v>100.370364321608</v>
+      </c>
+      <c r="NO13" s="11">
+        <v>90.071088130429</v>
+      </c>
+      <c r="NP13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA13" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11932,11 +11949,50 @@
       </c>
       <c r="NN14" s="12">
         <v>108.017119197244</v>
+      </c>
+      <c r="NO14" s="12">
+        <v>106.592541738329</v>
+      </c>
+      <c r="NP14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA14" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -13068,11 +13124,50 @@
       </c>
       <c r="NN15" s="11">
         <v>111.053575545472</v>
+      </c>
+      <c r="NO15" s="11">
+        <v>106.012850947738</v>
+      </c>
+      <c r="NP15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA15" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14204,11 +14299,50 @@
       </c>
       <c r="NN16" s="12">
         <v>89.647292812724</v>
+      </c>
+      <c r="NO16" s="12">
+        <v>68.819448741705</v>
+      </c>
+      <c r="NP16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA16" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15340,30 +15474,59 @@
       </c>
       <c r="NN17" s="11">
         <v>114.595861000606</v>
+      </c>
+      <c r="NO17" s="11">
+        <v>112.167569602361</v>
+      </c>
+      <c r="NP17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NQ17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NR17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NS17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NT17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NU17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NV17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NW17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NX17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NY17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="NZ17" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="OA17" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>68</v>
+      <c r="A22" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15396,10 +15559,11 @@
     <mergeCell ref="MB5:MN5"/>
     <mergeCell ref="MO5:NA5"/>
     <mergeCell ref="NB5:NN5"/>
+    <mergeCell ref="NO5:OA5"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R819da3f4254f42dc"/>
+  <legacyDrawing r:id="Rfc6711cede794380"/>
 </worksheet>
 </file>
 
@@ -15415,107 +15579,107 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="14" t="s">
-        <v>71</v>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="14" t="s">
-        <v>73</v>
+      <c r="B3" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="14" t="s">
-        <v>75</v>
+      <c r="B4" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="14" t="s">
-        <v>77</v>
+      <c r="B5" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="14" t="s">
-        <v>79</v>
+      <c r="B6" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="14" t="s">
-        <v>81</v>
+      <c r="B7" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="14" t="s">
-        <v>83</v>
+      <c r="B8" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="14" t="s">
-        <v>85</v>
+      <c r="B9" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="14" t="s">
-        <v>87</v>
+      <c r="B10" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="14" t="s">
-        <v>89</v>
+      <c r="B11" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="14" t="s">
-        <v>91</v>
+      <c r="B12" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="14" t="s">
-        <v>93</v>
+      <c r="B13" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="14" t="s">
-        <v>95</v>
+      <c r="B14" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R09aa052e1e89463b"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R5f2ff6f6a0cd49be"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rfc7e8151b30e4cca"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="Ra2e4a83d5a4f4469"/>
   </sheets>
 </workbook>
 </file>
@@ -57,6 +57,17 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">R. Cifras revisadas</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NP6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
@@ -66,12 +77,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a enero de 2022</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a febrero de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -276,6 +287,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">R</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Febrero</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
@@ -326,6 +357,25 @@
         <d:rFont val="Arial"/>
       </d:rPr>
       <d:t xml:space="preserve">Cifras preliminares</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t>R</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="10"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Cifras revisadas</d:t>
     </d:r>
   </si>
   <si>
@@ -395,19 +445,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2022-01</t>
+    <t>1993-01-2022-02</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a enero de 2022</t>
+    <t>Serie de enero de 1993 a febrero de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-04-06</t>
+    <t>2022-05-06</t>
   </si>
 </sst>
 </file>
@@ -548,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:OA23"/>
+  <dimension ref="A1:OA24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2554,7 +2604,7 @@
         <v>47</v>
       </c>
       <c r="NP6" s="10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="NQ6" s="10" t="s">
         <v>36</v>
@@ -2592,7 +2642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3726,48 +3776,48 @@
         <v>93.2936144936748</v>
       </c>
       <c r="NO7" s="11">
-        <v>98.2949094428707</v>
-      </c>
-      <c r="NP7" s="14" t="s">
-        <v>49</v>
+        <v>98.1707137941946</v>
+      </c>
+      <c r="NP7" s="11">
+        <v>92.3873914814597</v>
       </c>
       <c r="NQ7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4901,48 +4951,48 @@
         <v>83.9725244417656</v>
       </c>
       <c r="NO8" s="12">
-        <v>95.6141907101366</v>
-      </c>
-      <c r="NP8" s="15" t="s">
-        <v>49</v>
+        <v>95.4357044217612</v>
+      </c>
+      <c r="NP8" s="12">
+        <v>83.344469055518</v>
       </c>
       <c r="NQ8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA8" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6076,48 +6126,48 @@
         <v>102.391305835686</v>
       </c>
       <c r="NO9" s="11">
-        <v>97.4579588232144</v>
-      </c>
-      <c r="NP9" s="14" t="s">
-        <v>49</v>
+        <v>97.1508941547463</v>
+      </c>
+      <c r="NP9" s="11">
+        <v>102.878087125566</v>
       </c>
       <c r="NQ9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7251,48 +7301,48 @@
         <v>70.4671368349656</v>
       </c>
       <c r="NO10" s="12">
-        <v>94.2622661451165</v>
-      </c>
-      <c r="NP10" s="15" t="s">
-        <v>49</v>
+        <v>94.1780586705165</v>
+      </c>
+      <c r="NP10" s="12">
+        <v>69.0216385838851</v>
       </c>
       <c r="NQ10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA10" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8426,48 +8476,48 @@
         <v>108.142325071605</v>
       </c>
       <c r="NO11" s="11">
-        <v>102.56535596592</v>
-      </c>
-      <c r="NP11" s="14" t="s">
-        <v>49</v>
+        <v>102.527646553456</v>
+      </c>
+      <c r="NP11" s="11">
+        <v>106.792974641123</v>
       </c>
       <c r="NQ11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9601,48 +9651,48 @@
         <v>103.74068267103</v>
       </c>
       <c r="NO12" s="12">
-        <v>97.3529428726603</v>
-      </c>
-      <c r="NP12" s="15" t="s">
-        <v>49</v>
+        <v>97.419527667257</v>
+      </c>
+      <c r="NP12" s="12">
+        <v>96.9770145247873</v>
       </c>
       <c r="NQ12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA12" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10776,48 +10826,48 @@
         <v>100.370364321608</v>
       </c>
       <c r="NO13" s="11">
-        <v>90.071088130429</v>
-      </c>
-      <c r="NP13" s="14" t="s">
-        <v>49</v>
+        <v>90.0696553902374</v>
+      </c>
+      <c r="NP13" s="11">
+        <v>93.7224934212189</v>
       </c>
       <c r="NQ13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -11951,48 +12001,48 @@
         <v>108.017119197244</v>
       </c>
       <c r="NO14" s="12">
-        <v>106.592541738329</v>
-      </c>
-      <c r="NP14" s="15" t="s">
-        <v>49</v>
+        <v>106.745430745179</v>
+      </c>
+      <c r="NP14" s="12">
+        <v>101.106521437694</v>
       </c>
       <c r="NQ14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -13126,48 +13176,48 @@
         <v>111.053575545472</v>
       </c>
       <c r="NO15" s="11">
-        <v>106.012850947738</v>
-      </c>
-      <c r="NP15" s="14" t="s">
-        <v>49</v>
+        <v>105.906161247442</v>
+      </c>
+      <c r="NP15" s="11">
+        <v>113.285260006332</v>
       </c>
       <c r="NQ15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14301,48 +14351,48 @@
         <v>89.647292812724</v>
       </c>
       <c r="NO16" s="12">
-        <v>68.819448741705</v>
-      </c>
-      <c r="NP16" s="15" t="s">
-        <v>49</v>
+        <v>68.7998939398564</v>
+      </c>
+      <c r="NP16" s="12">
+        <v>91.5495786616552</v>
       </c>
       <c r="NQ16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15476,57 +15526,62 @@
         <v>114.595861000606</v>
       </c>
       <c r="NO17" s="11">
-        <v>112.167569602361</v>
-      </c>
-      <c r="NP17" s="14" t="s">
-        <v>49</v>
+        <v>112.046460925765</v>
+      </c>
+      <c r="NP17" s="11">
+        <v>116.882053940427</v>
       </c>
       <c r="NQ17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NR17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NS17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NT17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NU17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NV17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NW17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NX17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NY17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="NZ17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="OA17" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>59</v>
+      <c r="A22" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15563,7 +15618,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="Rfc6711cede794380"/>
+  <legacyDrawing r:id="Rae7fac9ee3e749a2"/>
 </worksheet>
 </file>
 
@@ -15580,106 +15635,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="R676dd6a34df34718"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R733d514dabf74d52"/>
+    <sheet name="Tabulado" sheetId="1" r:id="Rb3d08d27ed1e427f"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R1b44bd9446824898"/>
   </sheets>
 </workbook>
 </file>
@@ -24,7 +24,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -35,7 +35,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t xml:space="preserve">R. Cifras revisadas</t>
+          <t xml:space="preserve">P. Cifras preliminares</t>
         </d:r>
       </text>
     </comment>
@@ -57,11 +57,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NQ6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NQ6" authorId="0">
+    <comment ref="NR6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -82,7 +93,7 @@
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a marzo de 2022</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a abril de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -188,7 +199,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -208,7 +219,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -270,7 +281,7 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t xml:space="preserve">R</d:t>
+      <d:t xml:space="preserve">P</d:t>
     </d:r>
   </si>
   <si>
@@ -290,6 +301,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Marzo</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -300,7 +331,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Marzo</d:t>
+      <d:t> Abril</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -351,25 +382,6 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
-      <d:t>R</d:t>
-    </d:r>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:sz val="10"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
-      <d:t xml:space="preserve">Cifras revisadas</d:t>
-    </d:r>
-  </si>
-  <si>
-    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <d:rPr>
-        <d:vertAlign val="superscript"/>
-        <d:sz val="11"/>
-        <d:color rgb="FF000000"/>
-        <d:rFont val="Arial"/>
-      </d:rPr>
       <d:t>P</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -382,7 +394,23 @@
     </d:r>
   </si>
   <si>
-    <t>Nota: La actualización de este indicador se lleva a cabo una vez teniendo la última información estadística de encuestas, registros administrativos y datos primarios de 2022 y las Cuentas de Bienes y Servicios 2020 versión revisada, y se hace con base en los ´´Lineamientos de cambios a la información divulgada en las publicaciones estadísticas y geográficas del INEGI´´ que se complementan con las ´´Normas Especiales para la Divulgación de Datos´´ del FMI. Incorporar la información más reciente permite identificar posibles diferencias en los niveles de los índices y variaciones que fueron publicados oportunamente.</t>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t>R</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="10"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Cifras revisadas</d:t>
+    </d:r>
   </si>
   <si>
     <t>Fuente: INEGI. Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo</t>
@@ -451,19 +479,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2022-03</t>
+    <t>1993-01-2022-04</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a marzo de 2022</t>
+    <t>Serie de enero de 1993 a abril de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-06-06</t>
+    <t>2022-07-06</t>
   </si>
 </sst>
 </file>
@@ -604,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:OA25"/>
+  <dimension ref="A1:OA24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2616,7 +2644,7 @@
         <v>49</v>
       </c>
       <c r="NR6" s="10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="NS6" s="10" t="s">
         <v>38</v>
@@ -2648,7 +2676,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3788,42 +3816,42 @@
         <v>92.0811325864041</v>
       </c>
       <c r="NQ7" s="11">
-        <v>99.1652275509429</v>
-      </c>
-      <c r="NR7" s="14" t="s">
-        <v>51</v>
+        <v>99.3165929901705</v>
+      </c>
+      <c r="NR7" s="11">
+        <v>93.8981897306003</v>
       </c>
       <c r="NS7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA7" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4963,42 +4991,42 @@
         <v>82.8144836932021</v>
       </c>
       <c r="NQ8" s="12">
-        <v>83.5770600252529</v>
-      </c>
-      <c r="NR8" s="15" t="s">
-        <v>51</v>
+        <v>83.853862183735</v>
+      </c>
+      <c r="NR8" s="12">
+        <v>81.4649989303254</v>
       </c>
       <c r="NS8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6138,42 +6166,42 @@
         <v>101.174016029396</v>
       </c>
       <c r="NQ9" s="11">
-        <v>100.545924289167</v>
-      </c>
-      <c r="NR9" s="14" t="s">
-        <v>51</v>
+        <v>100.863381786067</v>
+      </c>
+      <c r="NR9" s="11">
+        <v>98.932038368044</v>
       </c>
       <c r="NS9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA9" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7313,42 +7341,42 @@
         <v>69.352539866575</v>
       </c>
       <c r="NQ10" s="12">
-        <v>71.1348096814283</v>
-      </c>
-      <c r="NR10" s="15" t="s">
-        <v>51</v>
+        <v>71.3818017188236</v>
+      </c>
+      <c r="NR10" s="12">
+        <v>68.6574666129312</v>
       </c>
       <c r="NS10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA10" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8488,42 +8516,42 @@
         <v>106.843117147885</v>
       </c>
       <c r="NQ11" s="11">
-        <v>123.997536512689</v>
-      </c>
-      <c r="NR11" s="14" t="s">
-        <v>51</v>
+        <v>123.949078376596</v>
+      </c>
+      <c r="NR11" s="11">
+        <v>113.704548292242</v>
       </c>
       <c r="NS11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA11" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9663,42 +9691,42 @@
         <v>97.1239568717304</v>
       </c>
       <c r="NQ12" s="12">
-        <v>113.188683330412</v>
-      </c>
-      <c r="NR12" s="15" t="s">
-        <v>51</v>
+        <v>113.047466998596</v>
+      </c>
+      <c r="NR12" s="12">
+        <v>100.166339839006</v>
       </c>
       <c r="NS12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA12" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10838,42 +10866,42 @@
         <v>93.7014612430568</v>
       </c>
       <c r="NQ13" s="11">
-        <v>115.809728471057</v>
-      </c>
-      <c r="NR13" s="14" t="s">
-        <v>51</v>
+        <v>115.811351614001</v>
+      </c>
+      <c r="NR13" s="11">
+        <v>92.3052929516235</v>
       </c>
       <c r="NS13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA13" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -12013,42 +12041,42 @@
         <v>101.466598663945</v>
       </c>
       <c r="NQ14" s="12">
-        <v>109.862963913365</v>
-      </c>
-      <c r="NR14" s="15" t="s">
-        <v>51</v>
+        <v>109.540505371191</v>
+      </c>
+      <c r="NR14" s="12">
+        <v>110.140848048073</v>
       </c>
       <c r="NS14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA14" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -13188,42 +13216,42 @@
         <v>113.27137900665</v>
       </c>
       <c r="NQ15" s="11">
-        <v>131.146522296892</v>
-      </c>
-      <c r="NR15" s="14" t="s">
-        <v>51</v>
+        <v>131.159414519752</v>
+      </c>
+      <c r="NR15" s="11">
+        <v>122.658732250858</v>
       </c>
       <c r="NS15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14363,42 +14391,42 @@
         <v>91.4470682974589</v>
       </c>
       <c r="NQ16" s="12">
-        <v>104.423793931326</v>
-      </c>
-      <c r="NR16" s="15" t="s">
-        <v>51</v>
+        <v>104.434412710683</v>
+      </c>
+      <c r="NR16" s="12">
+        <v>94.1715868335694</v>
       </c>
       <c r="NS16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA16" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15538,61 +15566,56 @@
         <v>116.882839219461</v>
       </c>
       <c r="NQ17" s="11">
-        <v>135.568566665484</v>
-      </c>
-      <c r="NR17" s="14" t="s">
-        <v>51</v>
+        <v>135.581835094991</v>
+      </c>
+      <c r="NR17" s="11">
+        <v>127.372750192683</v>
       </c>
       <c r="NS17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NT17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NU17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NV17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NW17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NX17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NY17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="NZ17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="OA17" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3"/>
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15629,7 +15652,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R994821ab4c1349c8"/>
+  <legacyDrawing r:id="R4d2b1ed844314135"/>
 </worksheet>
 </file>
 

--- a/DATA/ifb.xlsx
+++ b/DATA/ifb.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Tabulado" sheetId="1" r:id="Rb3d08d27ed1e427f"/>
-    <sheet name="MetaInfo" sheetId="2" r:id="R1b44bd9446824898"/>
+    <sheet name="Tabulado" sheetId="1" r:id="R474f0d56d26d4331"/>
+    <sheet name="MetaInfo" sheetId="2" r:id="R93007e8519794f24"/>
   </sheets>
 </workbook>
 </file>
@@ -68,11 +68,22 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
           </rPr>
+          <t xml:space="preserve">P. Cifras preliminares</t>
+        </d:r>
+      </text>
+    </comment>
+    <comment ref="NR6" authorId="0">
+      <text>
+        <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
           <t xml:space="preserve">R. Cifras revisadas</t>
         </d:r>
       </text>
     </comment>
-    <comment ref="NR6" authorId="0">
+    <comment ref="NS6" authorId="0">
       <text>
         <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
           <rPr>
@@ -88,12 +99,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI).</t>
   </si>
   <si>
-    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a abril de 2022</t>
+    <t>Sistema de Cuentas Nacionales de México. Indicador Mensual de la Formación Bruta de Capital Fijo. Año Base 2013. Serie de enero de 1993 a mayo de 2022</t>
   </si>
   <si>
     <t>Índice de volumen físico base 2013=100</t>
@@ -321,6 +332,26 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Arial"/>
       </d:rPr>
+      <d:t xml:space="preserve">P</d:t>
+    </d:r>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="10"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t> Abril</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:vertAlign val="superscript"/>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
       <d:t xml:space="preserve">R</d:t>
     </d:r>
   </si>
@@ -331,7 +362,7 @@
         <d:sz val="10"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
-      <d:t> Abril</d:t>
+      <d:t> Mayo</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -479,19 +510,19 @@
     <t>COBERTURA TEMPORAL</t>
   </si>
   <si>
-    <t>1993-01-2022-04</t>
+    <t>1993-01-2022-05</t>
   </si>
   <si>
     <t>DESCRIPCIÓN PERIODO</t>
   </si>
   <si>
-    <t>Serie de enero de 1993 a abril de 2022</t>
+    <t>Serie de enero de 1993 a mayo de 2022</t>
   </si>
   <si>
     <t>FECHA DE ACTUALIZACIÓN</t>
   </si>
   <si>
-    <t>2022-07-06</t>
+    <t>2022-08-05</t>
   </si>
 </sst>
 </file>
@@ -2647,7 +2678,7 @@
         <v>50</v>
       </c>
       <c r="NS6" s="10" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="NT6" s="10" t="s">
         <v>39</v>
@@ -2676,7 +2707,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="11">
         <v>59.351249100159</v>
@@ -3819,39 +3850,39 @@
         <v>99.3165929901705</v>
       </c>
       <c r="NR7" s="11">
-        <v>93.8981897306003</v>
-      </c>
-      <c r="NS7" s="14" t="s">
-        <v>52</v>
+        <v>93.9261073364128</v>
+      </c>
+      <c r="NS7" s="11">
+        <v>98.6411620998876</v>
       </c>
       <c r="NT7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA7" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="12">
         <v>71.3876053848892</v>
@@ -4994,39 +5025,39 @@
         <v>83.853862183735</v>
       </c>
       <c r="NR8" s="12">
-        <v>81.4649989303254</v>
-      </c>
-      <c r="NS8" s="15" t="s">
-        <v>52</v>
+        <v>81.5171994607032</v>
+      </c>
+      <c r="NS8" s="12">
+        <v>82.196362168798</v>
       </c>
       <c r="NT8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="11">
         <v>73.4330128550033</v>
@@ -6169,39 +6200,39 @@
         <v>100.863381786067</v>
       </c>
       <c r="NR9" s="11">
-        <v>98.932038368044</v>
-      </c>
-      <c r="NS9" s="14" t="s">
-        <v>52</v>
+        <v>98.8593868743259</v>
+      </c>
+      <c r="NS9" s="11">
+        <v>101.309078839452</v>
       </c>
       <c r="NT9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA9" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="12">
         <v>69.8878307740209</v>
@@ -7344,39 +7375,39 @@
         <v>71.3818017188236</v>
       </c>
       <c r="NR10" s="12">
-        <v>68.6574666129312</v>
-      </c>
-      <c r="NS10" s="15" t="s">
-        <v>52</v>
+        <v>68.8012136437449</v>
+      </c>
+      <c r="NS10" s="12">
+        <v>68.1821534469692</v>
       </c>
       <c r="NT10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA10" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11">
         <v>40.1770570379116</v>
@@ -8519,39 +8550,39 @@
         <v>123.949078376596</v>
       </c>
       <c r="NR11" s="11">
-        <v>113.704548292242</v>
-      </c>
-      <c r="NS11" s="14" t="s">
-        <v>52</v>
+        <v>113.693782641392</v>
+      </c>
+      <c r="NS11" s="11">
+        <v>124.838106162101</v>
       </c>
       <c r="NT11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA11" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12">
         <v>65.3858422854511</v>
@@ -9694,39 +9725,39 @@
         <v>113.047466998596</v>
       </c>
       <c r="NR12" s="12">
-        <v>100.166339839006</v>
-      </c>
-      <c r="NS12" s="15" t="s">
-        <v>52</v>
+        <v>100.157670159938</v>
+      </c>
+      <c r="NS12" s="12">
+        <v>120.179548749024</v>
       </c>
       <c r="NT12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA12" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="11">
         <v>72.9191132484154</v>
@@ -10871,37 +10902,37 @@
       <c r="NR13" s="11">
         <v>92.3052929516235</v>
       </c>
-      <c r="NS13" s="14" t="s">
-        <v>52</v>
+      <c r="NS13" s="11">
+        <v>134.58341076049</v>
       </c>
       <c r="NT13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="12">
         <v>55.8272333447225</v>
@@ -12044,39 +12075,39 @@
         <v>109.540505371191</v>
       </c>
       <c r="NR14" s="12">
-        <v>110.140848048073</v>
-      </c>
-      <c r="NS14" s="15" t="s">
-        <v>52</v>
+        <v>110.121177825915</v>
+      </c>
+      <c r="NS14" s="12">
+        <v>101.903173867421</v>
       </c>
       <c r="NT14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA14" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="11">
         <v>23.5039424777834</v>
@@ -13219,39 +13250,39 @@
         <v>131.159414519752</v>
       </c>
       <c r="NR15" s="11">
-        <v>122.658732250858</v>
-      </c>
-      <c r="NS15" s="14" t="s">
-        <v>52</v>
+        <v>122.646580322275</v>
+      </c>
+      <c r="NS15" s="11">
+        <v>127.919280469806</v>
       </c>
       <c r="NT15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA15" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="12">
         <v>8.81110358622343</v>
@@ -14394,39 +14425,39 @@
         <v>104.434412710683</v>
       </c>
       <c r="NR16" s="12">
-        <v>94.1715868335694</v>
-      </c>
-      <c r="NS16" s="15" t="s">
-        <v>52</v>
+        <v>94.080846066199</v>
+      </c>
+      <c r="NS16" s="12">
+        <v>112.005407898572</v>
       </c>
       <c r="NT16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA16" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="11">
         <v>25.935295466529</v>
@@ -15569,49 +15600,49 @@
         <v>135.581835094991</v>
       </c>
       <c r="NR17" s="11">
-        <v>127.372750192683</v>
-      </c>
-      <c r="NS17" s="14" t="s">
-        <v>52</v>
+        <v>127.373603048912</v>
+      </c>
+      <c r="NS17" s="11">
+        <v>130.552688616738</v>
       </c>
       <c r="NT17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NU17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NV17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NW17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NX17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NY17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="NZ17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="OA17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -15652,7 +15683,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
-  <legacyDrawing r:id="R4d2b1ed844314135"/>
+  <legacyDrawing r:id="Re04275134cd04431"/>
 </worksheet>
 </file>
 
@@ -15669,106 +15700,106 @@
   <sheetData>
     <row r="2">
       <c r="B2" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
